--- a/bg_pp.xlsx
+++ b/bg_pp.xlsx
@@ -5,22 +5,45 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhond\source\repos\simind\simind_study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhond\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE9A2106-A8FD-42B4-B786-0C49257ED696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C231D0-DA90-4CBC-A145-00911059817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{397986D6-ABC4-4453-8426-5B1A2CDE7CA6}"/>
   </bookViews>
   <sheets>
     <sheet name="bg_pp" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">bg_pp!$G$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">bg_pp!$G$2:$G$45</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">bg_pp!$H$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">bg_pp!$H$2:$H$45</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">bg_pp!$G$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">bg_pp!$G$2:$G$45</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">bg_pp!$H$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">bg_pp!$H$2:$H$45</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Energy</t>
     <phoneticPr fontId="18"/>
@@ -33,14 +56,21 @@
     <t>primary photons</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>Photon energy</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Abundance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -635,10 +665,10 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4669,7 +4699,601 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bg_pp!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Abundance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>bg_pp!$G$2:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>27.202000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.472999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.103999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.762</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>158.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>174.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>182.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>192.17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>197.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>198.23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>206.79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>207.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>247.96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>257.51</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>278.36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>281.02999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>295.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>329.38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>330.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>343.73</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>346.35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>405.02</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>437.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>440.02</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>454.76</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>505.33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>528.96</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>538.54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>556.04999999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>562.79</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>578.26</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>599.69000000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>610.04999999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>624.57000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>628.26</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>687.95</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>735.78</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>783.59</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>837.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>877.52</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>894.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>909.12</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1036.6300000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1068.1199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>bg_pp!$H$2:$H$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>0.24690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>2.86E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>8.3000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>1.8000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>1.9900000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>3.3000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>3.4999999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>3.3000000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>1.1199999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>6.9800000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>1.5999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>2.3E-5</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>7.8899999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00E+00">
+                  <c:v>1.5820000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>2.5999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00E+00">
+                  <c:v>1.164E-4</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00E+00">
+                  <c:v>4.3999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>1.2570000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00E+00">
+                  <c:v>2.9799999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00E+00">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00E+00">
+                  <c:v>4.2290000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00E+00">
+                  <c:v>4.1199999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00E+00">
+                  <c:v>2.66E-3</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00E+00">
+                  <c:v>1.2800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00E+00">
+                  <c:v>3.7880000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00E+00">
+                  <c:v>2.9E-5</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00E+00">
+                  <c:v>1.15E-5</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00E+00">
+                  <c:v>1.26E-5</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00E+00">
+                  <c:v>2.6599999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00E+00">
+                  <c:v>1.1E-5</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.00E+00">
+                  <c:v>7.9799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.00E+00">
+                  <c:v>1.6399999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.00E+00">
+                  <c:v>2.6899999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.00E+00">
+                  <c:v>6.1600000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00E+00">
+                  <c:v>5.9100000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00E+00">
+                  <c:v>5.8200000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00E+00">
+                  <c:v>8.3000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00E+00">
+                  <c:v>1.01E-5</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.00E+00">
+                  <c:v>1.4100000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.00E+00">
+                  <c:v>9.7000000000000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.00E+00">
+                  <c:v>1.42E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C2B7-4A6F-BE4D-7C6961B6A0D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="157811392"/>
+        <c:axId val="157812832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="157811392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="157812832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="157812832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="157811392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5225,20 +5849,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5260,6 +6400,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>250825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F99364A-62CC-3163-16E7-FC6BCD5874E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5585,10 +6761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A31249-EDC8-4612-8314-EDC7732DDFB4}">
-  <dimension ref="A1:E513"/>
+  <dimension ref="A1:H513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5597,7 +6773,7 @@
     <col min="4" max="5" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -5607,8 +6783,14 @@
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <f>2</f>
         <v>2</v>
@@ -5626,8 +6808,14 @@
       <c r="E2" s="3">
         <v>1.5480000000000001E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G2">
+        <v>27.202000000000002</v>
+      </c>
+      <c r="H2">
+        <v>0.24690000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -5641,8 +6829,14 @@
       <c r="E3" s="3">
         <v>1.137E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G3">
+        <v>27.472999999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.45979999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -5656,8 +6850,14 @@
       <c r="E4" s="3">
         <v>9.2870000000000001E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G4">
+        <v>31.103999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.13159999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -5671,8 +6871,14 @@
       <c r="E5" s="3">
         <v>7.9249999999999998E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5">
+        <v>31.762</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.86E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -5686,8 +6892,14 @@
       <c r="E6" s="3">
         <v>7.6280000000000002E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6">
+        <v>158.97</v>
+      </c>
+      <c r="H6">
+        <v>0.83250000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <v>6</v>
       </c>
@@ -5701,8 +6913,14 @@
       <c r="E7" s="3">
         <v>5.5579999999999996E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G7">
+        <v>174.2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8.3000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <v>7</v>
       </c>
@@ -5716,8 +6934,14 @@
       <c r="E8" s="3">
         <v>4.5209999999999998E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8">
+        <v>182.61</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.8000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -5731,8 +6955,14 @@
       <c r="E9" s="3">
         <v>2.3050000000000002E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9">
+        <v>192.17</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.9900000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <v>9</v>
       </c>
@@ -5746,8 +6976,14 @@
       <c r="E10" s="3">
         <v>3.2859999999999999E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G10">
+        <v>197.22</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3.3000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -5761,8 +6997,14 @@
       <c r="E11" s="3">
         <v>3.2290000000000001E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11">
+        <v>198.23</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3.4999999999999997E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <v>11</v>
       </c>
@@ -5776,8 +7018,14 @@
       <c r="E12" s="3">
         <v>2.7179999999999999E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G12">
+        <v>206.79</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3.3000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <v>12</v>
       </c>
@@ -5791,8 +7039,14 @@
       <c r="E13" s="3">
         <v>0.19089999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G13">
+        <v>207.8</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.1199999999999999E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <v>13</v>
       </c>
@@ -5806,8 +7060,14 @@
       <c r="E14" s="3">
         <v>0.55449999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14">
+        <v>247.96</v>
+      </c>
+      <c r="H14" s="1">
+        <v>6.9800000000000005E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <v>14</v>
       </c>
@@ -5821,8 +7081,14 @@
       <c r="E15" s="3">
         <v>0.72829999999999995</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15">
+        <v>257.51</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.5999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <v>15</v>
       </c>
@@ -5836,8 +7102,14 @@
       <c r="E16" s="3">
         <v>0.52249999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G16">
+        <v>278.36</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2.3E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <v>16</v>
       </c>
@@ -5851,8 +7123,14 @@
       <c r="E17" s="3">
         <v>0.29980000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G17">
+        <v>281.02999999999997</v>
+      </c>
+      <c r="H17" s="1">
+        <v>7.8899999999999999E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <v>17</v>
       </c>
@@ -5866,8 +7144,14 @@
       <c r="E18" s="3">
         <v>0.1295</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18">
+        <v>295.17</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.5820000000000001E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <v>18</v>
       </c>
@@ -5881,8 +7165,14 @@
       <c r="E19" s="3">
         <v>3.1269999999999999E-2</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G19">
+        <v>329.38</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2.5999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <v>19</v>
       </c>
@@ -5896,8 +7186,14 @@
       <c r="E20" s="3">
         <v>7.3489999999999996E-3</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G20">
+        <v>330.7</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1.164E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <v>20</v>
       </c>
@@ -5911,8 +7207,14 @@
       <c r="E21" s="3">
         <v>7.0569999999999999E-3</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G21">
+        <v>343.73</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4.3999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <v>21</v>
       </c>
@@ -5926,8 +7228,14 @@
       <c r="E22" s="3">
         <v>1.085E-2</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G22">
+        <v>346.35</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1.2570000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <v>22</v>
       </c>
@@ -5941,8 +7249,14 @@
       <c r="E23" s="3">
         <v>1.609E-2</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G23">
+        <v>405.02</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2.9799999999999999E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <v>23</v>
       </c>
@@ -5956,8 +7270,14 @@
       <c r="E24" s="3">
         <v>1.7090000000000001E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G24">
+        <v>437.5</v>
+      </c>
+      <c r="H24" s="1">
+        <v>6.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <v>24</v>
       </c>
@@ -5971,8 +7291,14 @@
       <c r="E25" s="3">
         <v>2.555E-2</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G25">
+        <v>440.02</v>
+      </c>
+      <c r="H25" s="1">
+        <v>4.2290000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <v>25</v>
       </c>
@@ -5986,8 +7312,14 @@
       <c r="E26" s="3">
         <v>2.6349999999999998E-2</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G26">
+        <v>454.76</v>
+      </c>
+      <c r="H26" s="1">
+        <v>4.1199999999999999E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <v>26</v>
       </c>
@@ -6001,8 +7333,14 @@
       <c r="E27" s="3">
         <v>3.2820000000000002E-2</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G27">
+        <v>505.33</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2.66E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <v>27</v>
       </c>
@@ -6016,8 +7354,14 @@
       <c r="E28" s="3">
         <v>3.6220000000000002E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G28">
+        <v>528.96</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <v>28</v>
       </c>
@@ -6031,8 +7375,14 @@
       <c r="E29" s="3">
         <v>3.9829999999999997E-2</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G29">
+        <v>538.54</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3.7880000000000001E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <v>29</v>
       </c>
@@ -6046,8 +7396,14 @@
       <c r="E30" s="3">
         <v>3.4750000000000003E-2</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G30">
+        <v>556.04999999999995</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2.9E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <v>30</v>
       </c>
@@ -6061,8 +7417,14 @@
       <c r="E31" s="3">
         <v>2.7449999999999999E-2</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G31">
+        <v>562.79</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1.15E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <v>31</v>
       </c>
@@ -6076,8 +7438,14 @@
       <c r="E32" s="3">
         <v>2.0240000000000001E-2</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G32">
+        <v>578.26</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1.26E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <v>32</v>
       </c>
@@ -6091,8 +7459,14 @@
       <c r="E33" s="3">
         <v>1.3339999999999999E-2</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G33">
+        <v>599.69000000000005</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2.6599999999999999E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <v>33</v>
       </c>
@@ -6106,8 +7480,14 @@
       <c r="E34" s="3">
         <v>6.3039999999999997E-3</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G34">
+        <v>610.04999999999995</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1.1E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <v>34</v>
       </c>
@@ -6121,8 +7501,14 @@
       <c r="E35" s="3">
         <v>2.5140000000000002E-3</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G35">
+        <v>624.57000000000005</v>
+      </c>
+      <c r="H35" s="1">
+        <v>7.9799999999999999E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <v>35</v>
       </c>
@@ -6136,8 +7522,14 @@
       <c r="E36" s="3">
         <v>2.4610000000000001E-3</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G36">
+        <v>628.26</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1.6399999999999999E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <v>36</v>
       </c>
@@ -6151,8 +7543,14 @@
       <c r="E37" s="3">
         <v>1.5150000000000001E-3</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G37">
+        <v>687.95</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2.6899999999999998E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <v>37</v>
       </c>
@@ -6166,8 +7564,14 @@
       <c r="E38" s="3">
         <v>1.1900000000000001E-3</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G38">
+        <v>735.78</v>
+      </c>
+      <c r="H38" s="1">
+        <v>6.1600000000000001E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <v>38</v>
       </c>
@@ -6181,8 +7585,14 @@
       <c r="E39" s="3">
         <v>1.6260000000000001E-3</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G39">
+        <v>783.59</v>
+      </c>
+      <c r="H39" s="1">
+        <v>5.9100000000000005E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <v>39</v>
       </c>
@@ -6196,8 +7606,14 @@
       <c r="E40" s="3">
         <v>1.0920000000000001E-3</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G40">
+        <v>837.1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>5.8200000000000002E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <v>40</v>
       </c>
@@ -6211,8 +7627,14 @@
       <c r="E41" s="3">
         <v>1.464E-3</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G41">
+        <v>877.52</v>
+      </c>
+      <c r="H41" s="1">
+        <v>8.3000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <v>41</v>
       </c>
@@ -6226,8 +7648,14 @@
       <c r="E42" s="3">
         <v>5.9250000000000004E-4</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G42">
+        <v>894.8</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1.01E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <v>42</v>
       </c>
@@ -6241,8 +7669,14 @@
       <c r="E43" s="3">
         <v>1.2179999999999999E-3</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G43">
+        <v>909.12</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1.4100000000000001E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <v>43</v>
       </c>
@@ -6256,8 +7690,14 @@
       <c r="E44" s="3">
         <v>2.1610000000000002E-3</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G44">
+        <v>1036.6300000000001</v>
+      </c>
+      <c r="H44" s="1">
+        <v>9.7000000000000003E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="1">
         <v>44</v>
       </c>
@@ -6271,8 +7711,14 @@
       <c r="E45" s="3">
         <v>1.75E-3</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="G45">
+        <v>1068.1199999999999</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1.42E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="1">
         <v>45</v>
       </c>
@@ -6287,7 +7733,7 @@
         <v>1.9710000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="1">
         <v>46</v>
       </c>
@@ -6302,7 +7748,7 @@
         <v>2.6879999999999999E-3</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="1">
         <v>47</v>
       </c>

--- a/bg_pp.xlsx
+++ b/bg_pp.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhond\source\repos\simind_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6B37246-C995-444D-84EB-788BD898DD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA10F68-1EAD-45B3-A57E-9BB62A20A133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{397986D6-ABC4-4453-8426-5B1A2CDE7CA6}"/>
+    <workbookView xWindow="3210" yWindow="3360" windowWidth="16305" windowHeight="15585" activeTab="1" xr2:uid="{397986D6-ABC4-4453-8426-5B1A2CDE7CA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="bg_pp" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32680,7 +32679,7 @@
   <dimension ref="A1:L513"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q228" sqref="Q228"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
